--- a/Vakken/Woorden als wapens/Groepspresentatie/Percentages.xlsx
+++ b/Vakken/Woorden als wapens/Groepspresentatie/Percentages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jort\Documents\LEIDEN\JNM-Premaster\Vakken\Woorden als wapens\Groepspresentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D787370-EF15-453D-975F-45E1D3390F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4007EF-F4DE-4DA7-B00A-BB597E51C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2E06EF8F-6878-46FA-9B61-B5BC0C95C5AA}"/>
+    <workbookView xWindow="38280" yWindow="3795" windowWidth="29040" windowHeight="15720" xr2:uid="{2E06EF8F-6878-46FA-9B61-B5BC0C95C5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +421,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -475,35 +476,35 @@
       </c>
       <c r="H2">
         <f>SUM(B2:G2)</f>
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <f>SUM(100*(B2/42))</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:P2" si="0">SUM(100*(C2/42))</f>
-        <v>2.3809523809523809</v>
-      </c>
-      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM((B2/47))</f>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:P2" si="0">SUM((C2/47))</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="M2">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="N2">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="N2" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>2.3809523809523809</v>
-      </c>
-      <c r="P2">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>30.952380952380953</v>
+        <v>0.2978723404255319</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -514,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -530,35 +531,35 @@
       </c>
       <c r="H3">
         <f>SUM(B3:G3)</f>
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <f>SUM(100*(B3/42))</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3" si="1">SUM(100*(C3/42))</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3" si="2">SUM(100*(D3/42))</f>
-        <v>23.809523809523807</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3" si="3">SUM(100*(E3/42))</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3" si="4">SUM(100*(F3/42))</f>
-        <v>11.904761904761903</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:P3" si="5">SUM(100*(G3/42))</f>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="5"/>
-        <v>69.047619047619051</v>
+        <v>33</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J4" si="1">SUM((B3/47))</f>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K4" si="2">SUM((C3/47))</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L4" si="3">SUM((D3/47))</f>
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M4" si="4">SUM((E3/47))</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N4" si="5">SUM((F3/47))</f>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O4" si="6">SUM((G3/47))</f>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P4" si="7">SUM((H3/47))</f>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -570,56 +571,56 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:H4" si="6">SUM(C2:C3)</f>
-        <v>4</v>
+        <f t="shared" ref="C4:H4" si="8">SUM(C2:C3)</f>
+        <v>6</v>
       </c>
       <c r="D4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27659574468085107</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="J4">
-        <f>SUM(100*(B4/42))</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4" si="7">SUM(100*(C4/42))</f>
-        <v>9.5238095238095237</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4" si="8">SUM(100*(D4/42))</f>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4" si="9">SUM(100*(E4/42))</f>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4" si="10">SUM(100*(F4/42))</f>
-        <v>11.904761904761903</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4" si="11">SUM(100*(G4/42))</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4" si="12">SUM(100*(H4/42))</f>
-        <v>100</v>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -630,7 +631,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H7">
         <f>SUM(H6/H4)</f>
-        <v>7.9761904761904763</v>
+        <v>7.1276595744680851</v>
       </c>
     </row>
   </sheetData>
